--- a/springConverter/src/main/resources/UploadedFiles/sample.xlsx
+++ b/springConverter/src/main/resources/UploadedFiles/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\Programming\Java\FilesConverterAlfaBank\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF9383-DD99-47B2-8A4F-3C9E7AA11772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA449D-E266-417D-9BC4-2DF100627228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5570" yWindow="790" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="нужный формат" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Фамилия</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>Псков, 8 Марта, 23</t>
-  </si>
-  <si>
-    <t>Тест дата</t>
-  </si>
-  <si>
-    <t>Тест время</t>
   </si>
 </sst>
 </file>
@@ -447,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,12 +501,6 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -557,12 +545,8 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1">
-        <v>44734</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.3888888888888889</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
